--- a/medicine/Sexualité et sexologie/Jade_(film)/Jade_(film).xlsx
+++ b/medicine/Sexualité et sexologie/Jade_(film)/Jade_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jade est un film américain réalisé par William Friedkin et sorti en 1995.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">David Corelli (David Caruso), jeune et ambitieux assistant du procureur à San Francisco, enquête sur l'assassinat du millionnaire Kyle Medford, collectionneur d'art et maître chanteur aux goûts décadents, connu pour ses nombreuses conquêtes féminines. Dans le coffre de la victime, les enquêteurs découvrent une photo compromettante du gouverneur Lew Edwards (Richard Crenna), en rendez-vous galant avec une prostituée de luxe, Patrice Jacinto (Angie Everhart). Au cours de son interrogatoire, cette dernière livre à Corelli le nom d'une autre amie intime d'Edwards, Jade. Cette mystérieuse jeune femme, que Patrice décrit comme une insatiable nymphomane, aurait eu, par l'entremise de Medford, des aventures avec certains notables les plus en vue de San Francisco. Patrice est assassinée avant d'avoir identifié Jade, mais des indices troublants orientent Corelli vers son ancienne amie Trina (Linda Fiorentino)...
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Jade
 Réalisation : William Friedkin
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>David Caruso (VF : Vincent Violette) : David Corelli
 Linda Fiorentino (VF : Francine Laffineuse) : Katina "Trina" Gavin
